--- a/experiments/programs/SeeDB_python/DiViz_flights_real/results.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_flights_real/results.xlsx
@@ -31,22 +31,22 @@
     <t>Utility</t>
   </si>
   <si>
+    <t>destination</t>
+  </si>
+  <si>
     <t>carrier</t>
   </si>
   <si>
     <t>origin</t>
   </si>
   <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>month</t>
+    <t>year</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>year</t>
+    <t>month</t>
   </si>
   <si>
     <t>week</t>
@@ -64,13 +64,13 @@
     <t>distance</t>
   </si>
   <si>
+    <t>sum</t>
+  </si>
+  <si>
     <t>avg</t>
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
         <v>16</v>
       </c>
       <c r="E2">
-        <v>1.390190070021951</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>1.389616667559303</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4">
-        <v>1.389070568179109</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -510,13 +510,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>1.387932330378497</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -527,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>1.384671764075528</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>1.381187596920617</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8">
-        <v>1.369001747445106</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -578,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>1.364959818753109</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -601,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>1.340000861642631</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -618,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>1.32813117257184</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>1.324387150358017</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -652,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>1.313983486244957</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -663,13 +663,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14">
-        <v>1.086305320779809</v>
+        <v>1.304700280674785</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -677,16 +677,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15">
-        <v>1.08224614929319</v>
+        <v>1.303992117540466</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -694,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>1.075008910520993</v>
+        <v>1.287187434832667</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -714,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>1.074278759555494</v>
+        <v>1.284000589640841</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>1.071372436715433</v>
+        <v>1.181478964005186</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -748,13 +748,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>1.065062896902795</v>
+        <v>1.159562473740353</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -762,16 +762,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>1.056518038886298</v>
+        <v>1.149615081834924</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -779,16 +779,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>1.055974909361746</v>
+        <v>1.146319502273639</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -799,13 +799,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>0.9732062964440539</v>
+        <v>1.137307698092018</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -813,16 +813,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>0.9698776000209365</v>
+        <v>1.132535687789139</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -830,16 +830,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>0.9628918010640595</v>
+        <v>1.123897733019126</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -847,16 +847,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>0.9357190050036364</v>
+        <v>1.110854669031078</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -864,16 +864,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>0.9338068414274686</v>
+        <v>1.08948508648008</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -881,16 +881,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>0.9255371298256115</v>
+        <v>1.087737404594133</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -898,16 +898,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28">
-        <v>0.9242686487687977</v>
+        <v>1.047477046884439</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -915,16 +915,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>0.9228129002997141</v>
+        <v>0.9968480213809268</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -932,16 +932,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>0.9074456979194006</v>
+        <v>0.9399178319057042</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -949,16 +949,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>0.8980007965902581</v>
+        <v>0.8599934570464456</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -966,16 +966,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32">
-        <v>0.8745117508483803</v>
+        <v>0.7908914482216012</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -986,13 +986,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>0.8702552420308051</v>
+        <v>0.7879647717808693</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1000,16 +1000,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>0.8567610193384683</v>
+        <v>0.7377034608157825</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1017,16 +1017,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35">
-        <v>0.8501248305146485</v>
+        <v>0.7362206236615845</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1034,16 +1034,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
-        <v>0.8489039019967377</v>
+        <v>0.7268269685757737</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>0.8457613776623927</v>
+        <v>0.7127463816166288</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1071,13 +1071,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>0.5930138350454661</v>
+        <v>0.7038647382433287</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1088,13 +1088,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>0.537104152970787</v>
+        <v>0.6986967117610029</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1102,16 +1102,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>0.532159067750397</v>
+        <v>0.6938926425140296</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1119,16 +1119,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0.5189204939057436</v>
+        <v>0.6786621690247974</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1136,16 +1136,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>0.5153962976763293</v>
+        <v>0.6767445554101715</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1153,16 +1153,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>0.5069155517177238</v>
+        <v>0.6610645547736658</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1170,16 +1170,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44">
-        <v>0.4846419046608345</v>
+        <v>0.5917881802992037</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45">
-        <v>0.4020968698062201</v>
+        <v>0.5686392777393928</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1204,16 +1204,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>0.3962309271036248</v>
+        <v>0.5675596982230317</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1221,16 +1221,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>0.3775940716134951</v>
+        <v>0.5578387397648435</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1238,16 +1238,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48">
-        <v>0.3686352914683455</v>
+        <v>0.5538619379975623</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1258,13 +1258,13 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49">
-        <v>0.3635254527846369</v>
+        <v>0.5479432657805892</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1275,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>0.3374147824801282</v>
+        <v>0.4255643779824537</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>0.3347964831793977</v>
+        <v>0.3985042978667666</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1306,16 +1306,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52">
-        <v>0.2968363006852343</v>
+        <v>0.3953204047461664</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>0.2771000200059256</v>
+        <v>0.3751430180375182</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1343,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>0.2703302607399348</v>
+        <v>0.3620494216021585</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>0.2586614568175753</v>
+        <v>0.3471053241921532</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1374,16 +1374,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>0.2344223537136539</v>
+        <v>0.345219412202222</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1391,16 +1391,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
       <c r="E57">
-        <v>0.2160031690404808</v>
+        <v>0.3446703710278781</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1408,16 +1408,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>0.2117949778230127</v>
+        <v>0.3397189862389229</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1425,16 +1425,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59">
-        <v>0.2051673746763807</v>
+        <v>0.3362550616772066</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1442,16 +1442,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>0.1968755798670291</v>
+        <v>0.3105376281614586</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1459,16 +1459,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>0.1945474731726031</v>
+        <v>0.3082372977329072</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1479,13 +1479,13 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0.1873151201333742</v>
+        <v>0.3079001004573763</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1493,16 +1493,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>0.1815090504565413</v>
+        <v>0.3078557825256665</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1510,16 +1510,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>0.1802055918685579</v>
+        <v>0.2960129252291743</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1527,16 +1527,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0.1774907162965253</v>
+        <v>0.2828235476907014</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,16 +1544,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>0.1772694178440921</v>
+        <v>0.2698660745389153</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1561,16 +1561,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
-        <v>0.1748732268534144</v>
+        <v>0.2681403376901599</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1578,16 +1578,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
       </c>
       <c r="E68">
-        <v>0.1712016700522703</v>
+        <v>0.2673315557244986</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1595,16 +1595,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69">
-        <v>0.1656768376013757</v>
+        <v>0.2591010417324213</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1612,16 +1612,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>0.164547089937745</v>
+        <v>0.2528766172066888</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1629,16 +1629,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>0.1513689412046492</v>
+        <v>0.2438694113483663</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1646,16 +1646,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>0.1477947463331691</v>
+        <v>0.2334715372373947</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1669,10 +1669,10 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>0.137706390698405</v>
+        <v>0.2109896570583666</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1680,16 +1680,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>0.134317659787754</v>
+        <v>0.180252776571334</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1697,16 +1697,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>0.1342091796404676</v>
+        <v>0.1659470037561426</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1714,16 +1714,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>0.1132939216090291</v>
+        <v>0.1658655297543124</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1737,10 +1737,10 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>0.113197625772019</v>
+        <v>0.1641404414230867</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1748,16 +1748,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>0.08598055747962473</v>
+        <v>0.1626765019637477</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1771,10 +1771,10 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>0.08558729425231865</v>
+        <v>0.1323626201567746</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E80">
-        <v>0.08350407849114838</v>
+        <v>0.1236558623787677</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1799,16 +1799,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>0.0746962459605863</v>
+        <v>0.07120545903503188</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1867,13 +1867,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>0</v>
